--- a/test/ct/tdata_excel_loader_SUITE_data/groups.xlsx
+++ b/test/ct/tdata_excel_loader_SUITE_data/groups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31971" windowHeight="15360" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>level_1</t>
   </si>
@@ -31,9 +31,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -46,12 +46,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -59,85 +90,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,42 +114,80 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -198,13 +198,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,169 +372,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,17 +401,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -426,6 +444,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -456,186 +489,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -699,6 +699,11 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -954,20 +959,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:C5"/>
+      <selection activeCell="A6" sqref="A6:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.55" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -985,40 +989,77 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3">
-        <v>32</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5">
-        <v>34</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1026,15 +1067,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.55" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14074074074074" defaultRowHeight="15" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1052,37 +1093,71 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3">
-        <v>32</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4">
-        <v>33</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5">
-        <v>34</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
     <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
